--- a/Admin/GANTT Chart.xlsx
+++ b/Admin/GANTT Chart.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B7DBCA-1088-4970-9BAF-DFE11522FD51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1373E8F0-EB36-457F-AC04-F94266E2FCA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="75">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -1030,6 +1030,7 @@
     <xf numFmtId="164" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1039,12 +1040,11 @@
     <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1674,9 +1674,9 @@
   </sheetPr>
   <dimension ref="A1:BL38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O30" sqref="O30"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:BL34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1720,346 +1720,346 @@
       <c r="A3" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="108"/>
+      <c r="C3" s="107"/>
       <c r="D3" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="106">
+      <c r="E3" s="108">
         <v>44076</v>
       </c>
-      <c r="F3" s="106"/>
+      <c r="F3" s="108"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="108"/>
+      <c r="C4" s="107"/>
       <c r="D4" s="84" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="7">
-        <v>9</v>
-      </c>
-      <c r="I4" s="103">
+        <v>18</v>
+      </c>
+      <c r="I4" s="104">
         <f>I5</f>
-        <v>44130</v>
-      </c>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="103">
+        <v>44193</v>
+      </c>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="104">
         <f>P5</f>
-        <v>44137</v>
-      </c>
-      <c r="Q4" s="104"/>
-      <c r="R4" s="104"/>
-      <c r="S4" s="104"/>
-      <c r="T4" s="104"/>
-      <c r="U4" s="104"/>
-      <c r="V4" s="105"/>
-      <c r="W4" s="103">
+        <v>44200</v>
+      </c>
+      <c r="Q4" s="105"/>
+      <c r="R4" s="105"/>
+      <c r="S4" s="105"/>
+      <c r="T4" s="105"/>
+      <c r="U4" s="105"/>
+      <c r="V4" s="106"/>
+      <c r="W4" s="104">
         <f>W5</f>
-        <v>44144</v>
-      </c>
-      <c r="X4" s="104"/>
-      <c r="Y4" s="104"/>
-      <c r="Z4" s="104"/>
-      <c r="AA4" s="104"/>
-      <c r="AB4" s="104"/>
-      <c r="AC4" s="105"/>
-      <c r="AD4" s="103">
+        <v>44207</v>
+      </c>
+      <c r="X4" s="105"/>
+      <c r="Y4" s="105"/>
+      <c r="Z4" s="105"/>
+      <c r="AA4" s="105"/>
+      <c r="AB4" s="105"/>
+      <c r="AC4" s="106"/>
+      <c r="AD4" s="104">
         <f>AD5</f>
-        <v>44151</v>
-      </c>
-      <c r="AE4" s="104"/>
-      <c r="AF4" s="104"/>
-      <c r="AG4" s="104"/>
-      <c r="AH4" s="104"/>
-      <c r="AI4" s="104"/>
-      <c r="AJ4" s="105"/>
-      <c r="AK4" s="103">
+        <v>44214</v>
+      </c>
+      <c r="AE4" s="105"/>
+      <c r="AF4" s="105"/>
+      <c r="AG4" s="105"/>
+      <c r="AH4" s="105"/>
+      <c r="AI4" s="105"/>
+      <c r="AJ4" s="106"/>
+      <c r="AK4" s="104">
         <f>AK5</f>
-        <v>44158</v>
-      </c>
-      <c r="AL4" s="104"/>
-      <c r="AM4" s="104"/>
-      <c r="AN4" s="104"/>
-      <c r="AO4" s="104"/>
-      <c r="AP4" s="104"/>
-      <c r="AQ4" s="105"/>
-      <c r="AR4" s="103">
+        <v>44221</v>
+      </c>
+      <c r="AL4" s="105"/>
+      <c r="AM4" s="105"/>
+      <c r="AN4" s="105"/>
+      <c r="AO4" s="105"/>
+      <c r="AP4" s="105"/>
+      <c r="AQ4" s="106"/>
+      <c r="AR4" s="104">
         <f>AR5</f>
-        <v>44165</v>
-      </c>
-      <c r="AS4" s="104"/>
-      <c r="AT4" s="104"/>
-      <c r="AU4" s="104"/>
-      <c r="AV4" s="104"/>
-      <c r="AW4" s="104"/>
-      <c r="AX4" s="105"/>
-      <c r="AY4" s="103">
+        <v>44228</v>
+      </c>
+      <c r="AS4" s="105"/>
+      <c r="AT4" s="105"/>
+      <c r="AU4" s="105"/>
+      <c r="AV4" s="105"/>
+      <c r="AW4" s="105"/>
+      <c r="AX4" s="106"/>
+      <c r="AY4" s="104">
         <f>AY5</f>
-        <v>44172</v>
-      </c>
-      <c r="AZ4" s="104"/>
-      <c r="BA4" s="104"/>
-      <c r="BB4" s="104"/>
-      <c r="BC4" s="104"/>
-      <c r="BD4" s="104"/>
-      <c r="BE4" s="105"/>
-      <c r="BF4" s="103">
+        <v>44235</v>
+      </c>
+      <c r="AZ4" s="105"/>
+      <c r="BA4" s="105"/>
+      <c r="BB4" s="105"/>
+      <c r="BC4" s="105"/>
+      <c r="BD4" s="105"/>
+      <c r="BE4" s="106"/>
+      <c r="BF4" s="104">
         <f>BF5</f>
-        <v>44179</v>
-      </c>
-      <c r="BG4" s="104"/>
-      <c r="BH4" s="104"/>
-      <c r="BI4" s="104"/>
-      <c r="BJ4" s="104"/>
-      <c r="BK4" s="104"/>
-      <c r="BL4" s="105"/>
+        <v>44242</v>
+      </c>
+      <c r="BG4" s="105"/>
+      <c r="BH4" s="105"/>
+      <c r="BI4" s="105"/>
+      <c r="BJ4" s="105"/>
+      <c r="BK4" s="105"/>
+      <c r="BL4" s="106"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
       <c r="I5" s="11">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>44130</v>
+        <v>44193</v>
       </c>
       <c r="J5" s="10">
         <f>I5+1</f>
-        <v>44131</v>
+        <v>44194</v>
       </c>
       <c r="K5" s="10">
         <f t="shared" ref="K5:AX5" si="0">J5+1</f>
-        <v>44132</v>
+        <v>44195</v>
       </c>
       <c r="L5" s="10">
         <f t="shared" si="0"/>
-        <v>44133</v>
+        <v>44196</v>
       </c>
       <c r="M5" s="10">
         <f t="shared" si="0"/>
-        <v>44134</v>
+        <v>44197</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" si="0"/>
-        <v>44135</v>
+        <v>44198</v>
       </c>
       <c r="O5" s="12">
         <f t="shared" si="0"/>
-        <v>44136</v>
+        <v>44199</v>
       </c>
       <c r="P5" s="11">
         <f>O5+1</f>
-        <v>44137</v>
+        <v>44200</v>
       </c>
       <c r="Q5" s="10">
         <f>P5+1</f>
-        <v>44138</v>
+        <v>44201</v>
       </c>
       <c r="R5" s="10">
         <f t="shared" si="0"/>
-        <v>44139</v>
+        <v>44202</v>
       </c>
       <c r="S5" s="10">
         <f t="shared" si="0"/>
-        <v>44140</v>
+        <v>44203</v>
       </c>
       <c r="T5" s="10">
         <f t="shared" si="0"/>
-        <v>44141</v>
+        <v>44204</v>
       </c>
       <c r="U5" s="10">
         <f t="shared" si="0"/>
-        <v>44142</v>
+        <v>44205</v>
       </c>
       <c r="V5" s="12">
         <f t="shared" si="0"/>
-        <v>44143</v>
+        <v>44206</v>
       </c>
       <c r="W5" s="11">
         <f>V5+1</f>
-        <v>44144</v>
+        <v>44207</v>
       </c>
       <c r="X5" s="10">
         <f>W5+1</f>
-        <v>44145</v>
+        <v>44208</v>
       </c>
       <c r="Y5" s="10">
         <f t="shared" si="0"/>
-        <v>44146</v>
+        <v>44209</v>
       </c>
       <c r="Z5" s="10">
         <f t="shared" si="0"/>
-        <v>44147</v>
+        <v>44210</v>
       </c>
       <c r="AA5" s="10">
         <f t="shared" si="0"/>
-        <v>44148</v>
+        <v>44211</v>
       </c>
       <c r="AB5" s="10">
         <f t="shared" si="0"/>
-        <v>44149</v>
+        <v>44212</v>
       </c>
       <c r="AC5" s="12">
         <f t="shared" si="0"/>
-        <v>44150</v>
+        <v>44213</v>
       </c>
       <c r="AD5" s="11">
         <f>AC5+1</f>
-        <v>44151</v>
+        <v>44214</v>
       </c>
       <c r="AE5" s="10">
         <f>AD5+1</f>
-        <v>44152</v>
+        <v>44215</v>
       </c>
       <c r="AF5" s="10">
         <f t="shared" si="0"/>
-        <v>44153</v>
+        <v>44216</v>
       </c>
       <c r="AG5" s="10">
         <f t="shared" si="0"/>
-        <v>44154</v>
+        <v>44217</v>
       </c>
       <c r="AH5" s="10">
         <f t="shared" si="0"/>
-        <v>44155</v>
+        <v>44218</v>
       </c>
       <c r="AI5" s="10">
         <f t="shared" si="0"/>
-        <v>44156</v>
+        <v>44219</v>
       </c>
       <c r="AJ5" s="12">
         <f t="shared" si="0"/>
-        <v>44157</v>
+        <v>44220</v>
       </c>
       <c r="AK5" s="11">
         <f>AJ5+1</f>
-        <v>44158</v>
+        <v>44221</v>
       </c>
       <c r="AL5" s="10">
         <f>AK5+1</f>
-        <v>44159</v>
+        <v>44222</v>
       </c>
       <c r="AM5" s="10">
         <f t="shared" si="0"/>
-        <v>44160</v>
+        <v>44223</v>
       </c>
       <c r="AN5" s="10">
         <f t="shared" si="0"/>
-        <v>44161</v>
+        <v>44224</v>
       </c>
       <c r="AO5" s="10">
         <f t="shared" si="0"/>
-        <v>44162</v>
+        <v>44225</v>
       </c>
       <c r="AP5" s="10">
         <f t="shared" si="0"/>
-        <v>44163</v>
+        <v>44226</v>
       </c>
       <c r="AQ5" s="12">
         <f t="shared" si="0"/>
-        <v>44164</v>
+        <v>44227</v>
       </c>
       <c r="AR5" s="11">
         <f>AQ5+1</f>
-        <v>44165</v>
+        <v>44228</v>
       </c>
       <c r="AS5" s="10">
         <f>AR5+1</f>
-        <v>44166</v>
+        <v>44229</v>
       </c>
       <c r="AT5" s="10">
         <f t="shared" si="0"/>
-        <v>44167</v>
+        <v>44230</v>
       </c>
       <c r="AU5" s="10">
         <f t="shared" si="0"/>
-        <v>44168</v>
+        <v>44231</v>
       </c>
       <c r="AV5" s="10">
         <f t="shared" si="0"/>
-        <v>44169</v>
+        <v>44232</v>
       </c>
       <c r="AW5" s="10">
         <f t="shared" si="0"/>
-        <v>44170</v>
+        <v>44233</v>
       </c>
       <c r="AX5" s="12">
         <f t="shared" si="0"/>
-        <v>44171</v>
+        <v>44234</v>
       </c>
       <c r="AY5" s="11">
         <f>AX5+1</f>
-        <v>44172</v>
+        <v>44235</v>
       </c>
       <c r="AZ5" s="10">
         <f>AY5+1</f>
-        <v>44173</v>
+        <v>44236</v>
       </c>
       <c r="BA5" s="10">
         <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
-        <v>44174</v>
+        <v>44237</v>
       </c>
       <c r="BB5" s="10">
         <f t="shared" si="1"/>
-        <v>44175</v>
+        <v>44238</v>
       </c>
       <c r="BC5" s="10">
         <f t="shared" si="1"/>
-        <v>44176</v>
+        <v>44239</v>
       </c>
       <c r="BD5" s="10">
         <f t="shared" si="1"/>
-        <v>44177</v>
+        <v>44240</v>
       </c>
       <c r="BE5" s="12">
         <f t="shared" si="1"/>
-        <v>44178</v>
+        <v>44241</v>
       </c>
       <c r="BF5" s="11">
         <f>BE5+1</f>
-        <v>44179</v>
+        <v>44242</v>
       </c>
       <c r="BG5" s="10">
         <f>BF5+1</f>
-        <v>44180</v>
+        <v>44243</v>
       </c>
       <c r="BH5" s="10">
         <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
-        <v>44181</v>
+        <v>44244</v>
       </c>
       <c r="BI5" s="10">
         <f t="shared" si="2"/>
-        <v>44182</v>
+        <v>44245</v>
       </c>
       <c r="BJ5" s="10">
         <f t="shared" si="2"/>
-        <v>44183</v>
+        <v>44246</v>
       </c>
       <c r="BK5" s="10">
         <f t="shared" si="2"/>
-        <v>44184</v>
+        <v>44247</v>
       </c>
       <c r="BL5" s="12">
         <f t="shared" si="2"/>
-        <v>44185</v>
+        <v>44248</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3486,12 +3486,12 @@
         <v>44108</v>
       </c>
       <c r="F22" s="66">
-        <v>44165</v>
+        <v>44285</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="17">
         <f t="shared" si="6"/>
-        <v>58</v>
+        <v>178</v>
       </c>
       <c r="I22" s="44"/>
       <c r="J22" s="44"/>
@@ -3711,18 +3711,18 @@
         <v>73</v>
       </c>
       <c r="D25" s="37">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="E25" s="67">
         <v>44122</v>
       </c>
       <c r="F25" s="67">
-        <v>44165</v>
+        <v>44285</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="17">
         <f t="shared" si="6"/>
-        <v>44</v>
+        <v>164</v>
       </c>
       <c r="I25" s="44"/>
       <c r="J25" s="44"/>
@@ -3938,14 +3938,22 @@
       <c r="B28" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="86"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
+      <c r="C28" s="86" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="87">
+        <v>0.1</v>
+      </c>
+      <c r="E28" s="89">
+        <v>44206</v>
+      </c>
+      <c r="F28" s="89">
+        <v>44285</v>
+      </c>
       <c r="G28" s="17"/>
-      <c r="H28" s="17" t="str">
+      <c r="H28" s="17">
         <f t="shared" si="6"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="I28" s="44"/>
       <c r="J28" s="44"/>
@@ -4009,14 +4017,22 @@
       <c r="B29" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="86"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="89"/>
+      <c r="C29" s="86" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="87">
+        <v>0</v>
+      </c>
+      <c r="E29" s="89">
+        <v>44206</v>
+      </c>
+      <c r="F29" s="89">
+        <v>44285</v>
+      </c>
       <c r="G29" s="17"/>
-      <c r="H29" s="17" t="str">
+      <c r="H29" s="17">
         <f t="shared" si="6"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="I29" s="44"/>
       <c r="J29" s="44"/>
@@ -4080,14 +4096,22 @@
       <c r="B30" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="86"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
+      <c r="C30" s="86" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="87">
+        <v>0</v>
+      </c>
+      <c r="E30" s="89">
+        <v>44206</v>
+      </c>
+      <c r="F30" s="89">
+        <v>44285</v>
+      </c>
       <c r="G30" s="17"/>
-      <c r="H30" s="17" t="str">
+      <c r="H30" s="17">
         <f t="shared" si="6"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="I30" s="44"/>
       <c r="J30" s="44"/>
@@ -4517,11 +4541,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4529,6 +4548,11 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <conditionalFormatting sqref="D34:D35 D7:D18 D20:D26">
     <cfRule type="dataBar" priority="23">
